--- a/docs/NOMECLATURASPROYECTO.xlsx
+++ b/docs/NOMECLATURASPROYECTO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ELECTROSUR\Analisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacho\Documents\GitHub\Prueba\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Capa Datos</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>PROGRAMAS</t>
+  </si>
+  <si>
+    <t>Rpt_Activos</t>
   </si>
 </sst>
 </file>
@@ -763,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H73"/>
+  <dimension ref="C3:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,9 +953,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I76" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
